--- a/biology/Botanique/Arecaceae/Arecaceae.xlsx
+++ b/biology/Botanique/Arecaceae/Arecaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palmiers, Palmacées, Palmae, ou Arécacées, Arecaceae, – les deux noms sont reconnus – forment une famille de plantes monocotylédones. Facilement reconnaissables à leur tige ligneuse non ramifiée, le stipe, surmonté d'un houppier de feuilles pennées ou palmées, les palmiers symbolisent les paysages tropicaux et méditerranéens, notamment leurs côtes et les oasis des déserts chauds.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Areca forme latinisée du nom vernaculaire, dans la région de Malabar (Indes), de l'aréquier ou palmier à bétel (Areca catechu), producteur des noix d'arec ou noix de bétel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Areca forme latinisée du nom vernaculaire, dans la région de Malabar (Indes), de l'aréquier ou palmier à bétel (Areca catechu), producteur des noix d'arec ou noix de bétel.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une famille de plantes généralement arborescentes connues sous le nom de palmiers, à « bois » atypique n'ayant pas de cambium pour assurer une croissance en largeur typique d'un tronc, parfois à l'aspect de lianes ou d'arbustes. Elle est répandue dans toute la zone intertropicale. Seules deux espèces (Phoenix theophrasti, le dattier de Crète) et le palmier nain (Chamaerops humilis) sont spontanées en Europe.
 Le palmier n'a pas de tronc mais un stipe, tige remplie de moelle ou de fibres, formée par un faisceau de pétioles de feuilles palmées ou pennées. Il n'a pas non plus de branches mais des palmes, qui selon les espèces peuvent avoir la forme d'un éventail (feuilles palmées), d'une plume (feuilles pennées) ou d'une structure intermédiaire entre ces deux formes (feuilles costapalmées).
-L'inflorescence est déterminée (ou cymeuse, c'est-à-dire avec un axe principal terminé par une fleur), paraissant souvent composée-spiciforme[2]. Les fleurs sont hermaphrodites ou unisexuées, généralement sessiles et à périanthe décomposé en 3 sépales, généralement 3 pétales, 3 ou 6 étamines (ou plus), 3 carpelles parfois jusqu'à 10, un ovule dans chaque loge. Le fruit est une drupe, souvent fibreuse ou rarement une baie.
+L'inflorescence est déterminée (ou cymeuse, c'est-à-dire avec un axe principal terminé par une fleur), paraissant souvent composée-spiciforme. Les fleurs sont hermaphrodites ou unisexuées, généralement sessiles et à périanthe décomposé en 3 sépales, généralement 3 pétales, 3 ou 6 étamines (ou plus), 3 carpelles parfois jusqu'à 10, un ovule dans chaque loge. Le fruit est une drupe, souvent fibreuse ou rarement une baie.
 Plante à la fois archaïque (ancienne) et très complexe, elle peut s'adapter à des conditions climatiques diversifiées (de la forêt équatoriale au désert aride). Sensibles au gel, les palmiers ne dépassent pas la latitude de 50° au Nord ou au Sud et préfèrent les nombreuses contrées tropicales. Quelques espèces sont à leur aise sous un climat semi-tempéré (méditerranéen ou subtropical humide), et une espèce (Trachycarpus fortunei) pousse sous climat tempéré de montagne.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les palmiers occupent une place à part dans le monde végétal, parce qu'ils comptent parmi les plus anciennes espèces de plantes depuis 80 millions d'années. La datation des plus anciens fossiles de palmiers les donne du début du Crétacé, il y a environ 120 millions d'années[3]. De nombreux fossiles de palmiers ont été découverts en Europe sur des terrains datant de l'Oligocène (38 millions d'années) au Miocène (6 millions d'années). Ils témoignent d'une ancienne période de climat tropical.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les palmiers occupent une place à part dans le monde végétal, parce qu'ils comptent parmi les plus anciennes espèces de plantes depuis 80 millions d'années. La datation des plus anciens fossiles de palmiers les donne du début du Crétacé, il y a environ 120 millions d'années. De nombreux fossiles de palmiers ont été découverts en Europe sur des terrains datant de l'Oligocène (38 millions d'années) au Miocène (6 millions d'années). Ils témoignent d'une ancienne période de climat tropical.
 </t>
         </is>
       </c>
@@ -609,12 +627,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-La famille des arécacées comprend (selon Watson &amp; Dallwitz) plus de 2 500 espèces réparties en plus de 200 genres, dans les régions tropicales, subtropicales et tempérées chaudes, de l'Afrique aux Amériques et à l'Asie :
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des arécacées comprend (selon Watson &amp; Dallwitz) plus de 2 500 espèces réparties en plus de 200 genres, dans les régions tropicales, subtropicales et tempérées chaudes, de l'Afrique aux Amériques et à l'Asie :
 D'un point de vue botanique, les palmiers sont des monocotylédones et ne sont donc pas des arbres, mais des « herbes géantes » : ils ne possèdent pas de vrai bois au sens botanique, l'épaississement du stipe résultant de l'addition répétée de faisceaux appelée « croissance secondaire diffuse », processus différent de celui à l'origine de la formation du bois des dicotylédones et des gymnospermes.
 Cela n'empêche pas les Ceroxylon des Andes de posséder les plus hauts stipes du monde (40 à 60 m). Quant au cocotier du Chili, il présente un stipe de plus d'1 m de diamètre.
-La classification phylogénétique APG II (2003)[4] et la classification phylogénétique APG III (2009)[5] rattachent cette famille à l'ordre des Arécales inclus dans le grand groupe des Commélinidées.
-Le Angiosperm Phylogeny Website                        (20 avril 2007)[6] reconnait 5 sous-familles :
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) rattachent cette famille à l'ordre des Arécales inclus dans le grand groupe des Commélinidées.
+Le Angiosperm Phylogeny Website                        (20 avril 2007) reconnait 5 sous-familles :
 Calamoideae
 Nypoideae
 Arecoideae
@@ -626,9 +649,45 @@
 			Palmier dattier des Canaries (Phoenix canariensis), un Coryphoideae
 			Nypa fruticans, un Nypoideae
 Les genres les plus connus pour cette famille sont les suivants : Areca, Bismarckia, Borassus, Brahea, Butia, Calamus, Cocos, Copernicia, Corypha, Elaeis, Euterpe, Hyphaene, Jubaea, Latania, Mauritia, Metroxylon, Phoenix, Raphia, Roystonea, Sabal, Salacca, Syagrus, Trachycarpus, Washingtonia.
-Liste des genres
-Liste des genres selon  World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[7]
-Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arecaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arecaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Liste des genres selon  World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)
+Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010) :
 genre Acanthophoenix  H.Wendl. (1866)
 genre Acoelorraphe  H.Wendl. (1879)
 genre Acrocomia  Mart. (1824)
@@ -771,8 +830,8 @@
 genre Ponapea  Becc. (1924)
 genre Prestoea  Hook.f. (1883)
 genre Pritchardia  Seem. &amp; H.Wendl. (1862)
-Liste des genres selon NCBI  (19 avr. 2010)[8]
-Selon NCBI  (19 avr. 2010)[8] :
+Liste des genres selon NCBI  (19 avr. 2010)
+Selon NCBI  (19 avr. 2010) :
 sous-famille Arecoideae
 tribu Areceae
 sous-tribu Archontophoenicinae
@@ -1028,8 +1087,8 @@
 genre Sabal
 sous-famille Nypoideae
 genre Nypa
-Liste des genres selon ITIS      (20 avr. 2010)[9]
-Selon ITIS      (20 avr. 2010)[9] :
+Liste des genres selon ITIS      (20 avr. 2010)
+Selon ITIS      (20 avr. 2010) :
 genre Acoelorraphe  H. Wendl.
 genre Acrocomia  Mart.
 genre Acromia
@@ -1090,36 +1149,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Arecaceae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arecaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Milieux de vie
-Les palmiers, largement répandus dans les régions intertropicales, font partie intégrante de l'écosystème tropical. Un grand nombre d'espèces poussent dans les forêts pluvieuses tropicales, au niveau de la canopée et dans la strate arborescente inférieure. Les palmiers poussent également dans des endroits durablement humides, comme les marais, à proximité des mangroves et sur les rives des fleuves. Ils prospèrent également dans les zones au climat subtropical humide ou méditerranéen, semi-arides et arides de plaines. Dans la cordillère des Andes on les rencontre encore à 4 000 mètres d'altitude. On les trouve aussi dans les oasis, notamment au Sahara.
-Parasites et maladies
-Entre autres, deux insectes ravageurs de palmiers :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Milieux de vie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les palmiers, largement répandus dans les régions intertropicales, font partie intégrante de l'écosystème tropical. Un grand nombre d'espèces poussent dans les forêts pluvieuses tropicales, au niveau de la canopée et dans la strate arborescente inférieure. Les palmiers poussent également dans des endroits durablement humides, comme les marais, à proximité des mangroves et sur les rives des fleuves. Ils prospèrent également dans les zones au climat subtropical humide ou méditerranéen, semi-arides et arides de plaines. Dans la cordillère des Andes on les rencontre encore à 4 000 mètres d'altitude. On les trouve aussi dans les oasis, notamment au Sahara.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arecaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arecaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parasites et maladies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Entre autres, deux insectes ravageurs de palmiers :
 Rhynchophorus ferrugineus - Le charançon rouge des palmiers (CRP) ;
 Paysandisia archon - Le papillon ravageur du palmier.
 Le papillon de nuit (hétérocère) suivant se nourrit de palmier :
@@ -1127,36 +1226,76 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Arecaceae</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arecaceae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Les palmiers et l'homme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Symbolisme
-Toutes les civilisations de la Méditerranée les ont vénérés[10]. Ils symbolisent l' « arbre de vie », la fécondité et le succès[11] et, du point de vue des images paysagères, les déserts chauds, les côtes et les paysages tropicaux.
-Économie
-Les palmiers sont des plantes parmi les plus utiles dans l'économie agricole des pays des zones tropicales où ils ne sont dépassés en importance que par les graminées. Toutes les parties de la plante sont employées de manière très variée. Les fruits, noix de coco ou dattes, font partie depuis des millénaires des aliments de base des populations vivant sous les tropiques. Avec le « bois » des stipes, on fabrique des planchers et des murs, et avec les feuilles on réalise la couverture des maisons.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Symbolisme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les civilisations de la Méditerranée les ont vénérés. Ils symbolisent l' « arbre de vie », la fécondité et le succès et, du point de vue des images paysagères, les déserts chauds, les côtes et les paysages tropicaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arecaceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arecaceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les palmiers et l'homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les palmiers sont des plantes parmi les plus utiles dans l'économie agricole des pays des zones tropicales où ils ne sont dépassés en importance que par les graminées. Toutes les parties de la plante sont employées de manière très variée. Les fruits, noix de coco ou dattes, font partie depuis des millénaires des aliments de base des populations vivant sous les tropiques. Avec le « bois » des stipes, on fabrique des planchers et des murs, et avec les feuilles on réalise la couverture des maisons.
 Les représentants les plus importants de cette famille sur le plan économique sont les suivants :
 le cocotier cultivé, genre Cocos ;
 les palmiers à huile, genres  Elaeis et Orbignya ;
@@ -1170,31 +1309,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Arecaceae</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arecaceae</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Utilisations des palmiers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">usage alimentaire : dattes, noix de coco, sucre, vin de palme, coprah, sagou (fécule), chou palmiste (cœur de palmier), huile de palme, chenilles
 usage thérapeutique : noix d'arec, sang-dragon
